--- a/login.xlsx
+++ b/login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="179">
   <si>
     <t>Product name</t>
   </si>
@@ -543,6 +543,60 @@
   </si>
   <si>
     <t>verify login page</t>
+  </si>
+  <si>
+    <t>car testscenario</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model </t>
+  </si>
+  <si>
+    <t>verify colour,size,name</t>
+  </si>
+  <si>
+    <t>petrol,desel</t>
+  </si>
+  <si>
+    <t>auto,manual</t>
+  </si>
+  <si>
+    <t>battry or regualr</t>
+  </si>
+  <si>
+    <t>7 seater,5 seater</t>
+  </si>
+  <si>
+    <t>inner space</t>
+  </si>
+  <si>
+    <t>check gear,clutch break work properly</t>
+  </si>
+  <si>
+    <t>check sound system</t>
+  </si>
+  <si>
+    <t>sound system is touch ot button</t>
+  </si>
+  <si>
+    <t>sunroof or not</t>
+  </si>
+  <si>
+    <t>comfortable or not</t>
+  </si>
+  <si>
+    <t>door mirror is automatically open or handle</t>
+  </si>
+  <si>
+    <t>diki size</t>
+  </si>
+  <si>
+    <t>check car average</t>
+  </si>
+  <si>
+    <t>somooth run or not</t>
   </si>
 </sst>
 </file>
@@ -957,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1416,54 +1470,195 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1476,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
